--- a/Test.xlsx
+++ b/Test.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
     <sheet name="TesetSheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +92,74 @@
   </si>
   <si>
     <t>아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,15 +509,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I4"/>
+  <dimension ref="A2:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -473,7 +543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -499,7 +569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>100</v>
       </c>
@@ -523,6 +593,32 @@
       </c>
       <c r="I4">
         <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -533,10 +629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I4"/>
+  <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -607,6 +703,80 @@
         <v>200</v>
       </c>
     </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -11,6 +11,7 @@
     <sheet name="TesetSheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -512,7 +513,7 @@
   <dimension ref="A2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -782,4 +783,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>